--- a/dashboard_loader/skills_improved_employment_uploader/skills_improved_employment.xlsx
+++ b/dashboard_loader/skills_improved_employment_uploader/skills_improved_employment.xlsx
@@ -5,13 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Description" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$2:$K$32</definedName>
+  </definedNames>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t xml:space="preserve">Improve employment outcomes for VET graduates </t>
   </si>
@@ -92,7 +95,7 @@
     <t xml:space="preserve">Training can give graduates better access to employment opportunities.  Improved employment status after training is defined as employment status changing from: not employed before training to employed after training; being employed at a higher skill level after training; or receiving a job-related benefit.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nationally, between 2008 and 2015 there was an 8.1 percentage point decrease in the proportion of VET graduates aged 20-64 years with improved employment circumstances after training. There were significant decreases in all jurisdictions other than the Australian Capital Territory and the Northern Territory. </t>
+    <t xml:space="preserve">Nationally, between 2008 and 2017 there was an 12.1 percentage point decrease in the proportion of VET graduates aged 20-64 years with improved employment circumstances after training. There were significant decreases in all jurisdictions other than the Australian Capital Territory. </t>
   </si>
   <si>
     <t xml:space="preserve">Influences</t>
@@ -101,10 +104,16 @@
     <t xml:space="preserve">Factors outside the training system, especially labour market conditions, affect job market outcomes.</t>
   </si>
   <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes outcomes of students who completed government-funded VET, broadly defined as Commonwealth, State and Territory government-funded training delivered by TAFE institutes, other government providers (such as universities), community education providers and private training providers. It excludes the domestic and international fee-for-service activity.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">NCVER Student Outcomes Survey</t>
+    <t xml:space="preserve">National Centre for Vocational Education Research (NCVER) 2017, Student Outcomes Survey; Steering Committee for the Review of Government Service Provision (SCRGSP) 2018, Report on Government Services 2018, table 5A.16.</t>
   </si>
 </sst>
 </file>
@@ -117,7 +126,7 @@
     <numFmt numFmtId="166" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -140,87 +149,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -234,7 +162,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,74 +171,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -328,7 +199,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -352,190 +223,86 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -544,18 +311,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +334,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -605,7 +369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2008</v>
       </c>
@@ -613,34 +377,34 @@
         <v>12</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>63.9</v>
+        <v>64.2</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>70.1</v>
+        <v>71</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>70.6</v>
+        <v>72.2</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>68.3</v>
+        <v>70.5</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>75.2</v>
+        <v>75.5</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>68</v>
+        <v>66.8</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>65.2</v>
+        <v>66.2</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>65.4</v>
+        <v>71.7</v>
       </c>
       <c r="K3" s="6" t="n">
-        <v>67.6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>2008</v>
       </c>
@@ -648,34 +412,34 @@
         <v>13</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>2008</v>
       </c>
@@ -683,34 +447,34 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>1.56494522691706</v>
+        <v>1.7</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>1.64051355206847</v>
+        <v>1.8</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>1.69971671388102</v>
+        <v>1.9</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>2.26939970717423</v>
+        <v>2.5</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>2.99202127659574</v>
+        <v>3.3</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>3.23529411764706</v>
+        <v>3.7</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>3.52760736196319</v>
+        <v>3.7</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>3.97553516819572</v>
+        <v>3.9</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.813609467455621</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>2009</v>
       </c>
@@ -745,7 +509,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>2009</v>
       </c>
@@ -780,7 +544,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>2009</v>
       </c>
@@ -788,34 +552,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1.0655737704918</v>
+        <v>1.1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>1.14155251141553</v>
+        <v>1.1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.977653631284916</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.2301013024602</v>
+        <v>1.3</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.68970814132104</v>
+        <v>1.7</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>3.00751879699248</v>
+        <v>3.1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>2.4024024024024</v>
+        <v>2.5</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>2.58397932816537</v>
+        <v>2.7</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.53680981595092</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>2010</v>
       </c>
@@ -850,7 +614,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>2010</v>
       </c>
@@ -885,7 +649,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>2010</v>
       </c>
@@ -893,34 +657,34 @@
         <v>14</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1.71526586620926</v>
+        <v>1.7</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1.87793427230047</v>
+        <v>1.9</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1.7530487804878</v>
+        <v>1.8</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1.91458026509573</v>
+        <v>1.9</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>3.77049180327869</v>
+        <v>3.8</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>2.95857988165681</v>
+        <v>3</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>3.63501483679525</v>
+        <v>3.7</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>4.48529411764706</v>
+        <v>4.6</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>2011</v>
       </c>
@@ -955,7 +719,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>2011</v>
       </c>
@@ -990,7 +754,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>2011</v>
       </c>
@@ -998,34 +762,34 @@
         <v>14</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1.05105105105105</v>
+        <v>1.1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.950292397660819</v>
+        <v>1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.05263157894737</v>
+        <v>1.1</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.53970826580227</v>
+        <v>1.6</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.21374045801527</v>
+        <v>2.3</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2.40793201133144</v>
+        <v>2.4</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3.26241134751773</v>
+        <v>3.3</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.462962962962963</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>2012</v>
       </c>
@@ -1060,7 +824,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>2012</v>
       </c>
@@ -1095,7 +859,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>2012</v>
       </c>
@@ -1103,34 +867,34 @@
         <v>14</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>1.72131147540984</v>
+        <v>1.7</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>2.67558528428094</v>
+        <v>2.7</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>2.34604105571847</v>
+        <v>2.4</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.85714285714286</v>
+        <v>1.9</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>2.71493212669683</v>
+        <v>2.8</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>4.06626506024096</v>
+        <v>4.1</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>4.10216718266254</v>
+        <v>4.2</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>3.90625</v>
+        <v>4</v>
       </c>
       <c r="K17" s="6" t="n">
-        <v>1.02362204724409</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>2013</v>
       </c>
@@ -1165,7 +929,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>2013</v>
       </c>
@@ -1200,7 +964,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>2013</v>
       </c>
@@ -1208,34 +972,34 @@
         <v>14</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>1.01351351351351</v>
+        <v>1.1</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>2.03045685279188</v>
+        <v>2.1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.21580547112462</v>
+        <v>1.2</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1.14503816793893</v>
+        <v>1.2</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.54220779220779</v>
+        <v>1.6</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.12264150943396</v>
+        <v>2.2</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>2.27963525835866</v>
+        <v>2.3</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>2.49632892804699</v>
+        <v>2.6</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.734094616639478</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>2014</v>
       </c>
@@ -1270,7 +1034,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>2014</v>
       </c>
@@ -1301,11 +1065,11 @@
       <c r="J22" s="6" t="n">
         <v>4.8</v>
       </c>
-      <c r="K22" s="6" t="n">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K22" s="8" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>2014</v>
       </c>
@@ -1313,34 +1077,34 @@
         <v>14</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1.26475548060708</v>
+        <v>1.3</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1.57342657342657</v>
+        <v>1.6</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2.08333333333333</v>
+        <v>2.1</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.83946488294314</v>
+        <v>1.9</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2.9179810725552</v>
+        <v>2.9</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2.39825581395349</v>
+        <v>2.5</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3.46320346320346</v>
-      </c>
-      <c r="K23" s="6" t="n">
-        <v>3.91014975041597</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.6</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <v>2015</v>
       </c>
@@ -1375,7 +1139,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>2015</v>
       </c>
@@ -1410,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>2015</v>
       </c>
@@ -1418,31 +1182,242 @@
         <v>14</v>
       </c>
       <c r="C26" s="7" t="n">
-        <v>1.09427609427609</v>
+        <v>1.1</v>
       </c>
       <c r="D26" s="7" t="n">
-        <v>2.37676056338028</v>
+        <v>2.4</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>1.99335548172757</v>
+        <v>2.1</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>1.18670886075949</v>
+        <v>1.2</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>1.78861788617886</v>
+        <v>1.9</v>
       </c>
       <c r="H26" s="7" t="n">
-        <v>1.9047619047619</v>
+        <v>1.9</v>
       </c>
       <c r="I26" s="7" t="n">
-        <v>2.72585669781931</v>
+        <v>2.8</v>
       </c>
       <c r="J26" s="7" t="n">
-        <v>2.76946107784431</v>
+        <v>2.8</v>
       </c>
       <c r="K26" s="7" t="n">
-        <v>0.840336134453782</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D29" s="11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F29" s="11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G29" s="11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H29" s="11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I29" s="11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J29" s="11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K29" s="11" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D32" s="11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F32" s="11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H32" s="11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I32" s="11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J32" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" s="11" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1461,79 +1436,86 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="83.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="83.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="14" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="40.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="15" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="40.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
